--- a/最近有人找我写爬虫/皖宁鲁冀藏苏_乡镇汇总.xlsx
+++ b/最近有人找我写爬虫/皖宁鲁冀藏苏_乡镇汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="安徽1237" sheetId="1" r:id="rId1"/>
@@ -17855,7 +17855,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17867,18 +17867,6 @@
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -18023,11 +18011,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -18376,19 +18359,28 @@
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -18397,136 +18389,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -18551,10 +18534,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -18881,7 +18864,7 @@
   <sheetPr/>
   <dimension ref="A1:C1238"/>
   <sheetViews>
-    <sheetView topLeftCell="A1219" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1219" sqref="D$1:E$1048576"/>
     </sheetView>
   </sheetViews>
@@ -63630,8 +63613,8 @@
   <sheetPr/>
   <dimension ref="A1:C677"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
